--- a/Contact List App - Requirements Traceability Matrix (RTM).xlsx
+++ b/Contact List App - Requirements Traceability Matrix (RTM).xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="105">
   <si>
     <t>Requirement Name / Description</t>
   </si>
@@ -273,57 +273,30 @@
     <t>TC - 001 to TC - 031</t>
   </si>
   <si>
-    <t>Bug - 001 / Bug - 002 / Bug - 003 / Bug - 004 / Bug - 005 / Bug - 006 / Bug - 007 / Bug - 008 / Bug - 009</t>
-  </si>
-  <si>
     <t>TC - 032 to TC - 039</t>
   </si>
   <si>
-    <t>Bug - 010</t>
-  </si>
-  <si>
     <t>TC - 040 to TC - 044</t>
   </si>
   <si>
-    <t>Bug - 011</t>
-  </si>
-  <si>
     <t>TC - 045 to TC - 074</t>
   </si>
   <si>
-    <t>Bug - 012 / Bug - 013 / Bug - 014 / Bug - 015 / Bug - 016 / Bug - 017 / Bug - 018 / Bug - 019</t>
-  </si>
-  <si>
     <t>TC - 075 to TC - 102</t>
   </si>
   <si>
-    <t>Bug - 020 / Bug - 021</t>
-  </si>
-  <si>
     <t>TC - 103 to TC - 117</t>
   </si>
   <si>
-    <t>Bug - 022 / Bug - 023 / Bug - 024 / Bug - 025 / Bug - 026</t>
-  </si>
-  <si>
     <t>TC - 118 to TC - 129</t>
   </si>
   <si>
-    <t>Bug - 027 / Bug - 028</t>
-  </si>
-  <si>
     <t>TC - 130 to TC - 135</t>
   </si>
   <si>
-    <t>Bug - 029 / Bug - 030 / Bug - 031</t>
-  </si>
-  <si>
     <t>TC - 136 to TC - 145</t>
   </si>
   <si>
-    <t>Bug - 032 / Bug - 033</t>
-  </si>
-  <si>
     <t>TC - 146 to TC - 154</t>
   </si>
   <si>
@@ -333,13 +306,37 @@
     <t>TC - 155 to TC - 163</t>
   </si>
   <si>
-    <t>Bug - 034 / Bug - 035</t>
-  </si>
-  <si>
     <t>TC - 164 to TC - 172</t>
   </si>
   <si>
-    <t>Bug - 036 / Bug - 037 / Bug - 038 / Bug - 039</t>
+    <t>Bug - 025 / Bug - 026 / Bug - 027 / Bug - 028</t>
+  </si>
+  <si>
+    <t>Bug - 024</t>
+  </si>
+  <si>
+    <t>Bug - 021 / Bug - 022 / Bug - 023</t>
+  </si>
+  <si>
+    <t>Bug - 016 / Bug - 017 / Bug - 018 / Bug - 019 / Bug - 020</t>
+  </si>
+  <si>
+    <t>Bug - 015</t>
+  </si>
+  <si>
+    <t>Bug - 009 / Bug - 010 / Bug - 011 / Bug - 012 / Bug - 013 / Bug - 014</t>
+  </si>
+  <si>
+    <t>Bug - 008</t>
+  </si>
+  <si>
+    <t>Bug - 007</t>
+  </si>
+  <si>
+    <t>Bug - 001 / Bug - 002 / Bug - 003 / Bug - 004 / Bug - 005 / Bug - 006</t>
+  </si>
+  <si>
+    <t>Current Status</t>
   </si>
 </sst>
 </file>
@@ -1015,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1115,13 +1112,13 @@
         <v>6</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -1150,7 +1147,7 @@
         <v>14</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
@@ -1176,13 +1173,13 @@
         <v>17</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I7" s="22" t="s">
         <v>14</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
@@ -1208,16 +1205,16 @@
         <v>17</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I8" s="22" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>24</v>
       </c>
@@ -1240,13 +1237,13 @@
         <v>12</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I9" s="22" t="s">
         <v>14</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
@@ -1272,13 +1269,13 @@
         <v>17</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I10" s="22" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
@@ -1304,13 +1301,13 @@
         <v>12</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I11" s="22" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -1336,13 +1333,13 @@
         <v>18</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>14</v>
+        <v>88</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
@@ -1368,7 +1365,7 @@
         <v>18</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I13" s="22" t="s">
         <v>14</v>
@@ -1400,13 +1397,13 @@
         <v>18</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>14</v>
+        <v>90</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>13</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -1432,13 +1429,13 @@
         <v>19</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="I15" s="20" t="s">
         <v>13</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
@@ -1464,13 +1461,13 @@
         <v>19</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="I16" s="22" t="s">
         <v>14</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="44" thickBot="1" x14ac:dyDescent="0.4">
@@ -1496,13 +1493,13 @@
         <v>19</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="I17" s="21" t="s">
         <v>14</v>
       </c>
       <c r="J17" s="19" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
